--- a/Excel/ShouJiConfig.xlsx
+++ b/Excel/ShouJiConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_2022_0213\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1880AD0D-B50E-448A-8A0A-C7873174E984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CDAC8A-A22E-4F6C-938D-B269B11A51DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="2910" windowWidth="28830" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShouJiProto" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>string</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -154,13 +154,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>17,1,30</t>
-  </si>
-  <si>
-    <t>17,30</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>星级1属性类型</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -229,22 +222,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>洛兰森林</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
-    <t>古城遗迹</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下魔窟</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵国度</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -261,19 +238,81 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>1;100000@12000004;100@12000008;30</t>
+    <t>第一章</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;50000@10000121;1@10010083;10@10010087;1</t>
+  </si>
+  <si>
+    <t>1;50000@10000121;1@10010083;20@10010087;1@10000143;5</t>
+  </si>
+  <si>
+    <t>1;100000@10000121;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>1;100000@12000004;100</t>
+    <t>1;150000@10000122;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>1;50000@12000004;50</t>
+    <t>1;200000@10000123;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>1;50000@12000004;50</t>
+    <t>1;250000@10000124;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@10000125;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;250000@10000125;1@10010083;20@10010087;1@10000143;5</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;200000@10000124;1@10010083;20@10010087;1@10000143;5</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;150000@10000123;1@10010083;20@10010087;1@10000143;5</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100000@10000122;1@10010083;20@10010087;1@10000143;5</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;150000@10000123;1@10010083;10@10010087;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;200000@10000124;1@10010083;10@10010087;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;250000@10000125;1@10010083;10@10010087;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100000@10000122;1@10010083;10@10010087;1</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -6422,45 +6461,37 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="1554" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="1554" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="1554" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="1554" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="14" xfId="1554" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="14" xfId="1554" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="48" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="48" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="22" fillId="34" borderId="15" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8679,11 +8710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N15" sqref="N15"/>
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8703,209 +8734,193 @@
   <sheetData>
     <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="7"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="7"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="Q3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="9" t="s">
+      <c r="R3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>44</v>
+      <c r="S3" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="L4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>47</v>
+      <c r="S4" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="N5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="8" t="s">
+      <c r="R5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -8915,51 +8930,51 @@
       <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>40</v>
+      <c r="F6" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="G6" s="4">
         <v>110001</v>
       </c>
       <c r="H6" s="4">
-        <v>60</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>50</v>
+        <v>120</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="L6" s="4">
-        <v>90</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="4">
+        <v>280</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="P6" s="4">
-        <v>120</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1">
         <v>10002</v>
       </c>
@@ -8969,51 +8984,51 @@
       <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>41</v>
+      <c r="F7" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="G7" s="4">
         <v>120001</v>
       </c>
       <c r="H7" s="4">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I7" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="L7" s="4">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="M7" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>17</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="P7" s="4">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="Q7" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>17</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1">
         <v>10003</v>
       </c>
@@ -9023,51 +9038,51 @@
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>42</v>
+      <c r="F8" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="G8" s="4">
         <v>130001</v>
       </c>
       <c r="H8" s="4">
-        <v>60</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="4">
+        <v>200</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="4">
+        <v>280</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="L8" s="4">
-        <v>90</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="4">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1">
         <v>10004</v>
       </c>
@@ -9077,190 +9092,206 @@
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>43</v>
+      <c r="F9" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G9" s="4">
         <v>140001</v>
       </c>
       <c r="H9" s="4">
+        <v>120</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="4">
+        <v>200</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="4">
+        <v>280</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1">
+        <v>10005</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="4">
+        <v>150001</v>
+      </c>
+      <c r="H10" s="4">
+        <v>120</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="4">
-        <v>90</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="4">
-        <v>120</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>48</v>
+      <c r="L10" s="4">
+        <v>200</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="4">
+        <v>280</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10" s="6"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10" s="6"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11" s="6"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
-      <c r="P11" s="6"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
+    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12" s="6"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
-      <c r="P12" s="6"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13" s="6"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="P13" s="6"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
+    <row r="14" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="L14" s="6"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
-      <c r="P14" s="6"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
+    <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15" s="6"/>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="P15" s="6"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
+    <row r="16" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16" s="6"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="P16" s="6"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -9277,7 +9308,7 @@
       <c r="R17"/>
       <c r="S17"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -9294,7 +9325,7 @@
       <c r="R18"/>
       <c r="S18"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -9311,7 +9342,7 @@
       <c r="R19"/>
       <c r="S19"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9328,7 +9359,7 @@
       <c r="R20"/>
       <c r="S20"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -9339,7 +9370,7 @@
       <c r="L21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -9350,7 +9381,7 @@
       <c r="L22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -9361,6 +9392,13 @@
       <c r="L23" s="3"/>
       <c r="P23" s="3"/>
     </row>
+    <row r="24" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ShouJiConfig.xlsx
+++ b/Excel/ShouJiConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CDAC8A-A22E-4F6C-938D-B269B11A51DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9B3EA9-1A02-4C8B-BA68-9973005CB97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShouJiProto" sheetId="1" r:id="rId1"/>
@@ -258,62 +258,54 @@
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
-    <t>1;50000@10000121;1@10010083;10@10010087;1</t>
-  </si>
-  <si>
-    <t>1;50000@10000121;1@10010083;20@10010087;1@10000143;5</t>
-  </si>
-  <si>
-    <t>1;100000@10000121;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
+    <t>1;50000@10010046;1@10010083;10@10010087;1</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>1;150000@10000122;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
+    <t>1;100000@10010046;1@10010083;10@10010087;1</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>1;200000@10000123;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
+    <t>1;150000@10010046;1@10010083;10@10010087;1</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>1;250000@10000124;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
+    <t>1;200000@10010046;1@10010083;10@10010087;1</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>1;300000@10000125;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
+    <t>1;250000@10010046;1@10010083;10@10010087;1</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>1;250000@10000125;1@10010083;20@10010087;1@10000143;5</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>1;100000@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
   </si>
   <si>
-    <t>1;200000@10000124;1@10010083;20@10010087;1@10000143;5</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>1;150000@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
   </si>
   <si>
-    <t>1;150000@10000123;1@10010083;20@10010087;1@10000143;5</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>1;200000@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
   </si>
   <si>
-    <t>1;100000@10000122;1@10010083;20@10010087;1@10000143;5</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>1;250000@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
   </si>
   <si>
-    <t>1;150000@10000123;1@10010083;10@10010087;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>1;300000@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
   </si>
   <si>
-    <t>1;200000@10000124;1@10010083;10@10010087;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>1;50000@10010046;1@10010083;20@10010087;1@10000143;5</t>
   </si>
   <si>
-    <t>1;250000@10000125;1@10010083;10@10010087;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>1;100000@10010046;1@10010083;20@10010087;1@10000143;5</t>
   </si>
   <si>
-    <t>1;100000@10000122;1@10010083;10@10010087;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>1;150000@10010046;1@10010083;20@10010087;1@10000143;5</t>
+  </si>
+  <si>
+    <t>1;200000@10010046;1@10010083;20@10010087;1@10000143;5</t>
+  </si>
+  <si>
+    <t>1;250000@10010046;1@10010083;20@10010087;1@10000143;5</t>
   </si>
 </sst>
 </file>
@@ -8713,8 +8705,8 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8725,7 +8717,7 @@
     <col min="4" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="8" width="19.875" customWidth="1"/>
     <col min="9" max="10" width="14.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="19.875" customWidth="1"/>
     <col min="13" max="15" width="14.125" style="3" customWidth="1"/>
     <col min="16" max="16" width="15.125" customWidth="1"/>
@@ -8958,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P6" s="4">
         <v>280</v>
@@ -8970,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9000,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L7" s="4">
         <v>200</v>
@@ -9012,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P7" s="4">
         <v>280</v>
@@ -9024,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9054,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L8" s="4">
         <v>200</v>
@@ -9066,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P8" s="4">
         <v>280</v>
@@ -9078,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9108,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L9" s="4">
         <v>200</v>
@@ -9120,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P9" s="4">
         <v>280</v>
@@ -9132,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9162,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L10" s="4">
         <v>200</v>
@@ -9174,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P10" s="4">
         <v>280</v>
@@ -9186,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/Excel/ShouJiConfig.xlsx
+++ b/Excel/ShouJiConfig.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9B3EA9-1A02-4C8B-BA68-9973005CB97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA70C67-DE11-4A55-B3C3-0134247F0EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="1350" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShouJiProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -8382,9 +8373,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8422,9 +8413,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8457,26 +8448,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8509,26 +8483,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8705,8 +8662,8 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R8" sqref="R8"/>
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8941,7 +8898,7 @@
         <v>47</v>
       </c>
       <c r="L6" s="4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -8953,7 +8910,7 @@
         <v>57</v>
       </c>
       <c r="P6" s="4">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -8995,7 +8952,7 @@
         <v>48</v>
       </c>
       <c r="L7" s="4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -9007,7 +8964,7 @@
         <v>58</v>
       </c>
       <c r="P7" s="4">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -9049,7 +9006,7 @@
         <v>49</v>
       </c>
       <c r="L8" s="4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -9061,7 +9018,7 @@
         <v>59</v>
       </c>
       <c r="P8" s="4">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -9103,7 +9060,7 @@
         <v>50</v>
       </c>
       <c r="L9" s="4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -9115,7 +9072,7 @@
         <v>60</v>
       </c>
       <c r="P9" s="4">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
@@ -9157,7 +9114,7 @@
         <v>51</v>
       </c>
       <c r="L10" s="4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -9169,7 +9126,7 @@
         <v>61</v>
       </c>
       <c r="P10" s="4">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>

--- a/Excel/ShouJiConfig.xlsx
+++ b/Excel/ShouJiConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA70C67-DE11-4A55-B3C3-0134247F0EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A20DEBB-F4AC-4B64-B1DC-2D903F687267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="1350" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShouJiProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>string</t>
     <phoneticPr fontId="25" type="noConversion"/>
@@ -249,41 +249,6 @@
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
-    <t>1;50000@10010046;1@10010083;10@10010087;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;100000@10010046;1@10010083;10@10010087;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;150000@10010046;1@10010083;10@10010087;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;200000@10010046;1@10010083;10@10010087;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;250000@10010046;1@10010083;10@10010087;1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;100000@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
-  </si>
-  <si>
-    <t>1;150000@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
-  </si>
-  <si>
-    <t>1;200000@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
-  </si>
-  <si>
-    <t>1;250000@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
-  </si>
-  <si>
-    <t>1;300000@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
-  </si>
-  <si>
     <t>1;50000@10010046;1@10010083;20@10010087;1@10000143;5</t>
   </si>
   <si>
@@ -297,6 +262,38 @@
   </si>
   <si>
     <t>1;250000@10010046;1@10010083;20@10010087;1@10000143;5</t>
+  </si>
+  <si>
+    <t>1;50000@10010046;1@10000143;3@10010087;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100000@10010046;1@10000143;4@10010087;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;150000@10010046;1@10000143;5@10010087;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;250000@10010046;1@10000143;5@10010087;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;200000@10010046;1@10000143;5@10010087;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010093;1@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000150;1@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000157;25@10010046;1@10010083;30@10010087;1@10000143;10@10010045;1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8662,8 +8659,8 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8674,7 +8671,7 @@
     <col min="4" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="8" width="19.875" customWidth="1"/>
     <col min="9" max="10" width="14.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="45.75" style="3" customWidth="1"/>
     <col min="12" max="12" width="19.875" customWidth="1"/>
     <col min="13" max="15" width="14.125" style="3" customWidth="1"/>
     <col min="16" max="16" width="15.125" customWidth="1"/>
@@ -8895,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L6" s="4">
         <v>220</v>
@@ -8907,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="P6" s="4">
         <v>310</v>
@@ -8919,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -8949,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L7" s="4">
         <v>220</v>
@@ -8961,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P7" s="4">
         <v>310</v>
@@ -8973,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9003,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L8" s="4">
         <v>220</v>
@@ -9015,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="P8" s="4">
         <v>310</v>
@@ -9027,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9057,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="L9" s="4">
         <v>220</v>
@@ -9069,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P9" s="4">
         <v>310</v>
@@ -9081,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9111,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="4">
         <v>220</v>
@@ -9123,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P10" s="4">
         <v>310</v>
@@ -9135,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
